--- a/public/upload/Replacement_order.xlsx
+++ b/public/upload/Replacement_order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <x:si>
     <x:t>Date</x:t>
   </x:si>
@@ -28,7 +28,7 @@
     <x:t>Street + house number (sold to party)</x:t>
   </x:si>
   <x:si>
-    <x:t>City (sold to party)</x:t>
+    <x:t>City(sold to party)</x:t>
   </x:si>
   <x:si>
     <x:t>Name (ship to party)</x:t>
@@ -46,61 +46,301 @@
     <x:t>Serial no. (QR code)</x:t>
   </x:si>
   <x:si>
-    <x:t>2018-03-09 03:43:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5aa23b22563561ed0caa5ab8</x:t>
+    <x:t>2018-03-11 10:49:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018031520779741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>full name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanghai jing 'an district kangding road 1018 from pavilion building the second floor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>秦皇岛市</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KainAltionaaaa</x:t>
   </x:si>
   <x:si>
     <x:t>159 0049 6504</x:t>
   </x:si>
   <x:si>
-    <x:t>Address</x:t>
-  </x:si>
-  <x:si>
-    <x:t>阳泉市</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kain</x:t>
+    <x:t>Tails 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC123456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-11 10:49:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018031520779741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>full name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanghai jing 'an district kangding road 1018 from pavilion building the second floor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>秦皇岛市</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KainAltionaaaa</x:t>
   </x:si>
   <x:si>
     <x:t>159 0049 6504</x:t>
   </x:si>
   <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>chcg1992</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-02-23 11:44:43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5a8f8e2b9c1fb1316f334217</x:t>
+    <x:t>vkvh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC123456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-11 10:49:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018031520779741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>full name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanghai jing 'an district kangding road 1018 from pavilion building the second floor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>秦皇岛市</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KainAltionaaaa</x:t>
   </x:si>
   <x:si>
     <x:t>159 0049 6504</x:t>
   </x:si>
   <x:si>
-    <x:t>address</x:t>
+    <x:t>Tails</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC123456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-11 07:53:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018031520769228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>full name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanghai jing 'an district kangding road 1018 from pavilion building the second floor</x:t>
   </x:si>
   <x:si>
     <x:t>秦皇岛市</x:t>
   </x:si>
   <x:si>
+    <x:t>KainAltion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15900496504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tails 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC123456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-11 07:53:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018031520769228</x:t>
+  </x:si>
+  <x:si>
     <x:t>full name</x:t>
   </x:si>
   <x:si>
-    <x:t>159 0049 6504</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t/>
+    <x:t>Shanghai jing 'an district kangding road 1018 from pavilion building the second floor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>秦皇岛市</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KainAltion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15900496504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>vkvh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC123456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-11 07:33:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018031520768033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>full name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanghai jing 'an district kangding road 1018 from pavilion building the second floor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>秦皇岛市</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KainAltion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15900496504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tails</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC123456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-11 07:33:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018031520768033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>full name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanghai jing 'an district kangding road 1018 from pavilion building the second floor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>秦皇岛市</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KainAltion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15900496504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tails 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC123456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-01 03:45:23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018031519890323</x:t>
+  </x:si>
+  <x:si>
+    <x:t>full name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanghai jing 'an district kangding road 1018 from pavilion building the second floor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>秦皇岛市</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KainAltion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15900496504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tails2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC123456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-11 07:29:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018031520767757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>full name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanghai jing 'an district kangding road 1018 from pavilion building the second floor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>秦皇岛市</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KainAltion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15900496504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tails</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABC123456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-11 07:29:17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018031520767757</x:t>
+  </x:si>
+  <x:si>
+    <x:t>full name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shanghai jing 'an district kangding road 1018 from pavilion building the second floor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>秦皇岛市</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KainAltion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15900496504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tails 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
   </x:si>
   <x:si>
     <x:t>ABC123456</x:t>
@@ -463,18 +703,6 @@
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" width="500" max="1" min="1"/>
-    <col customWidth="1" width="500" max="2" min="2"/>
-    <col customWidth="1" width="500" max="3" min="3"/>
-    <col customWidth="1" width="500" max="4" min="4"/>
-    <col customWidth="1" width="500" max="5" min="5"/>
-    <col customWidth="1" width="200" max="6" min="6"/>
-    <col customWidth="1" width="200" max="7" min="7"/>
-    <col customWidth="1" width="200" max="8" min="8"/>
-    <col customWidth="1" width="100" max="9" min="9"/>
-    <col customWidth="1" width="100" max="10" min="10"/>
-  </cols>
   <x:sheetData>
     <x:row r="1" spans="1:10">
       <x:c r="A1" s="0" t="s">
@@ -570,6 +798,262 @@
       </x:c>
       <x:c r="J3" s="0" t="s">
         <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="J6" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="J11" s="0" t="s">
+        <x:v>109</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
